--- a/clcore/output/ValueSet-VSTiposDocumentos.xlsx
+++ b/clcore/output/ValueSet-VSTiposDocumentos.xlsx
@@ -240,10 +240,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/clcore/output/ValueSet-VSTiposDocumentos.xlsx
+++ b/clcore/output/ValueSet-VSTiposDocumentos.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/clcore/output/ValueSet-VSTiposDocumentos.xlsx
+++ b/clcore/output/ValueSet-VSTiposDocumentos.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Códigos de Docum" r:id="rId4" sheetId="2"/>
     <sheet name="Include from identifierType" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Tipo Identificad" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -119,6 +120,9 @@
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/CodeSystem/CSTipoIdentificador</t>
   </si>
 </sst>
 </file>
@@ -469,4 +473,47 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/clcore/output/ValueSet-VSTiposDocumentos.xlsx
+++ b/clcore/output/ValueSet-VSTiposDocumentos.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.2</t>
+    <t>1.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/clcore/output/ValueSet-VSTiposDocumentos.xlsx
+++ b/clcore/output/ValueSet-VSTiposDocumentos.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.5</t>
+    <t>1.8.6</t>
   </si>
   <si>
     <t>Name</t>
